--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -37,58 +37,19 @@
     <t xml:space="preserve">Topic</t>
   </si>
   <si>
-    <t xml:space="preserve">TT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinay Sahu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Institute of Technology Allahabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150498vinaysahu@gmail.com</t>
+    <t xml:space="preserve">C101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Institute of Information Technology, Allahabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iec2017017@iiita.ac.in</t>
   </si>
   <si>
     <t xml:space="preserve">Web Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohd. Shareef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avatarjee123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ujjwal Trivedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trivediujjwal@gmail.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Web </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Development</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -98,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,12 +81,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -134,13 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,40 +132,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -290,17 +234,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="A5:E5"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,7 +263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -337,46 +280,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="150498vinaysahu@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="avatarjee123@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="trivediujjwal@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="iec2017017@iiita.ac.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
